--- a/Data/g11.7.xlsx
+++ b/Data/g11.7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3826EE6-ACAA-4235-B1E0-9F68D9CC4A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2557D91A-9871-45D6-BD86-B15DB6B8D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9C0E79C1-A925-4DBA-A1BD-485CB25CD928}"/>
   </bookViews>
@@ -388,11 +388,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AFE081-2088-4FD3-8802-74B5B142B4DE}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" activeCellId="1" sqref="A2 F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -415,13 +413,13 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>-178.22180064197678</v>
+        <v>-190.03616681730207</v>
       </c>
       <c r="C2">
-        <v>-251.24816719073229</v>
+        <v>-386.15890840440017</v>
       </c>
       <c r="D2">
-        <v>-512.83175073933273</v>
+        <v>-536.53068034738487</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -429,13 +427,13 @@
         <v>2016</v>
       </c>
       <c r="B3">
-        <v>-241.61198416074214</v>
+        <v>-329.81368043359379</v>
       </c>
       <c r="C3">
-        <v>-258.86492072982361</v>
+        <v>-304.74344595039679</v>
       </c>
       <c r="D3">
-        <v>-539.65286644758226</v>
+        <v>-564.59125077399528</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -443,13 +441,13 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>-358.6916932167004</v>
+        <v>-400.906278166047</v>
       </c>
       <c r="C4">
-        <v>-288.45734029512761</v>
+        <v>-317.43595203653797</v>
       </c>
       <c r="D4">
-        <v>-700.79455582238302</v>
+        <v>-733.17960379220426</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -457,13 +455,13 @@
         <v>2018</v>
       </c>
       <c r="B5">
-        <v>-398.17874593722115</v>
+        <v>-410.52063479944718</v>
       </c>
       <c r="C5">
-        <v>-318.13527177264865</v>
+        <v>-333.13969282022856</v>
       </c>
       <c r="D5">
-        <v>-472.04024790232813</v>
+        <v>-493.85412465835395</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -471,13 +469,13 @@
         <v>2019</v>
       </c>
       <c r="B6">
-        <v>-363.96109692028801</v>
+        <v>-354.26011710232416</v>
       </c>
       <c r="C6">
-        <v>-398.08871948717888</v>
+        <v>-260.44063513311795</v>
       </c>
       <c r="D6">
-        <v>-702.78537451303885</v>
+        <v>-534.71259487172188</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -485,13 +483,13 @@
         <v>2020</v>
       </c>
       <c r="B7">
-        <v>-349.58241257142805</v>
+        <v>-357.20350774086046</v>
       </c>
       <c r="C7">
-        <v>-362.54104462261205</v>
+        <v>-379.29475514103149</v>
       </c>
       <c r="D7">
-        <v>-533.88964298271628</v>
+        <v>-558.56169780240066</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -499,13 +497,13 @@
         <v>2021</v>
       </c>
       <c r="B8">
-        <v>-217.5415094202146</v>
+        <v>-303.45368812069552</v>
       </c>
       <c r="C8">
-        <v>-187.97409640008587</v>
+        <v>-230.07951127841898</v>
       </c>
       <c r="D8">
-        <v>-246.9670599400481</v>
+        <v>-258.37987702984196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -513,13 +511,27 @@
         <v>2022</v>
       </c>
       <c r="B9">
-        <v>-233.77371038771849</v>
+        <v>-296.7614332654619</v>
       </c>
       <c r="C9">
-        <v>-252.22973990417464</v>
+        <v>-263.88575543447024</v>
       </c>
       <c r="D9">
-        <v>-366.43826226847079</v>
+        <v>-383.37207061921686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10">
+        <v>-308.15787901734899</v>
+      </c>
+      <c r="C10">
+        <v>-279.86305368101188</v>
+      </c>
+      <c r="D10">
+        <v>-517.20884682061887</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g11.7.xlsx
+++ b/Data/g11.7.xlsx
@@ -460,13 +460,13 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>-1054.253414198498</v>
+        <v>-503.9157522584894</v>
       </c>
       <c r="C2" t="n">
-        <v>-589.911135146517</v>
+        <v>-184.3024599460749</v>
       </c>
       <c r="D2" t="n">
-        <v>-1102.954904772692</v>
+        <v>-771.4996365605837</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>-1037.890765094185</v>
+        <v>-487.7016053425754</v>
       </c>
       <c r="C3" t="n">
-        <v>-664.7177760696691</v>
+        <v>-232.7429042058306</v>
       </c>
       <c r="D3" t="n">
-        <v>-1158.177848374007</v>
+        <v>-514.8661514682541</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>-1084.054438952541</v>
+        <v>-516.3149586721969</v>
       </c>
       <c r="C4" t="n">
-        <v>-733.7489607197722</v>
+        <v>-261.4772290195456</v>
       </c>
       <c r="D4" t="n">
-        <v>-1253.068240202092</v>
+        <v>-763.8795634547579</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>-1084.751953360226</v>
+        <v>-528.2070474616711</v>
       </c>
       <c r="C5" t="n">
-        <v>-746.6278737990914</v>
+        <v>-316.4916476709561</v>
       </c>
       <c r="D5" t="n">
-        <v>-1291.796819945811</v>
+        <v>-580.4121483922563</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +516,10 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>-355.3352083638646</v>
+        <v>-342.8572764143494</v>
       </c>
       <c r="C6" t="n">
-        <v>-222.8218619790956</v>
+        <v>-194.4217271133621</v>
       </c>
       <c r="D6" t="n">
         <v>-268.5618721834991</v>
@@ -530,10 +530,10 @@
         <v>2022</v>
       </c>
       <c r="B7" t="n">
-        <v>-350.1448687894891</v>
+        <v>-357.4461201988151</v>
       </c>
       <c r="C7" t="n">
-        <v>-221.3036524134676</v>
+        <v>-215.9024927842444</v>
       </c>
       <c r="D7" t="n">
         <v>-398.5925973798795</v>
@@ -544,10 +544,10 @@
         <v>2023</v>
       </c>
       <c r="B8" t="n">
-        <v>-372.3015922201779</v>
+        <v>-370.5427410574931</v>
       </c>
       <c r="C8" t="n">
-        <v>-234.1529161430527</v>
+        <v>-215.6927621177635</v>
       </c>
       <c r="D8" t="n">
         <v>-533.5325266161339</v>
@@ -558,10 +558,10 @@
         <v>2024</v>
       </c>
       <c r="B9" t="n">
-        <v>-385.7103366713882</v>
+        <v>-404.1582977226919</v>
       </c>
       <c r="C9" t="n">
-        <v>-239.697851680816</v>
+        <v>-232.4997573667561</v>
       </c>
       <c r="D9" t="n">
         <v>-604.477723338306</v>
